--- a/TestCase/ami-api-archive-service.xlsx
+++ b/TestCase/ami-api-archive-service.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiannancao\Documents\GitHub\exceltest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiannancao\Documents\GitHub\exceltest\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1001,9 +1001,6 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1020,6 +1017,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -12352,7 +12352,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
@@ -12411,10 +12411,10 @@
       <c r="J1" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="26" t="s">
         <v>123</v>
       </c>
       <c r="M1" s="25" t="s">
@@ -12423,7 +12423,7 @@
       <c r="N1" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="26" t="s">
         <v>117</v>
       </c>
       <c r="P1" s="25" t="s">
@@ -12432,13 +12432,13 @@
       <c r="Q1" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="R1" s="25" t="s">
+      <c r="R1" s="26" t="s">
         <v>9</v>
       </c>
       <c r="S1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="26" t="s">
+      <c r="T1" s="32" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12662,28 +12662,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" ht="25.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:8" s="7" customFormat="1" ht="17.399999999999999">
       <c r="A3" s="5" t="s">

--- a/TestCase/ami-api-archive-service.xlsx
+++ b/TestCase/ami-api-archive-service.xlsx
@@ -1004,6 +1004,9 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1017,9 +1020,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -12350,9 +12350,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
@@ -12438,7 +12438,7 @@
       <c r="S1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="32" t="s">
+      <c r="T1" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12471,7 +12471,7 @@
         <v>126</v>
       </c>
       <c r="J2" s="18">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M2" s="18" t="s">
         <v>49</v>
@@ -12662,28 +12662,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:8" ht="25.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="3" spans="1:8" s="7" customFormat="1" ht="17.399999999999999">
       <c r="A3" s="5" t="s">
